--- a/data/trans_orig/P36B06_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36B06_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A8F24245-B3E4-4DCC-9693-F4FA3FF58E38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{248E12CD-DE46-4480-8BB0-848186F363CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1133C1DA-A6CB-4782-AF39-91ED1E3B6EB1}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AAE0432E-5799-4C9F-9A74-496E856A12FE}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>10,69%</t>
   </si>
   <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
   </si>
   <si>
     <t>9,33%</t>
   </si>
   <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
   </si>
   <si>
     <t>9,92%</t>
   </si>
   <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
   </si>
   <si>
     <t>Menos de una al día</t>
@@ -104,28 +104,28 @@
     <t>89,31%</t>
   </si>
   <si>
-    <t>81,31%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
+    <t>80,7%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
   </si>
   <si>
     <t>90,67%</t>
   </si>
   <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
+    <t>86,42%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
   </si>
   <si>
     <t>90,08%</t>
   </si>
   <si>
-    <t>85,94%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
+    <t>86,27%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>20,93%</t>
   </si>
   <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
   </si>
   <si>
     <t>20,47%</t>
   </si>
   <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
   </si>
   <si>
     <t>20,69%</t>
   </si>
   <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
   </si>
   <si>
     <t>79,07%</t>
   </si>
   <si>
-    <t>75,26%</t>
-  </si>
-  <si>
-    <t>82,63%</t>
+    <t>75,04%</t>
+  </si>
+  <si>
+    <t>82,75%</t>
   </si>
   <si>
     <t>79,53%</t>
   </si>
   <si>
-    <t>76,56%</t>
-  </si>
-  <si>
-    <t>82,38%</t>
+    <t>76,95%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
   </si>
   <si>
     <t>79,31%</t>
   </si>
   <si>
-    <t>76,53%</t>
-  </si>
-  <si>
-    <t>81,59%</t>
+    <t>77,09%</t>
+  </si>
+  <si>
+    <t>81,57%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -194,55 +194,55 @@
     <t>26,41%</t>
   </si>
   <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
   </si>
   <si>
     <t>26,18%</t>
   </si>
   <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
   </si>
   <si>
     <t>26,3%</t>
   </si>
   <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
   </si>
   <si>
     <t>73,59%</t>
   </si>
   <si>
-    <t>70,17%</t>
-  </si>
-  <si>
-    <t>78,44%</t>
+    <t>69,93%</t>
+  </si>
+  <si>
+    <t>78,09%</t>
   </si>
   <si>
     <t>73,82%</t>
   </si>
   <si>
-    <t>71,36%</t>
-  </si>
-  <si>
-    <t>76,41%</t>
+    <t>71,16%</t>
+  </si>
+  <si>
+    <t>76,12%</t>
   </si>
   <si>
     <t>73,7%</t>
   </si>
   <si>
-    <t>71,72%</t>
-  </si>
-  <si>
-    <t>76,54%</t>
+    <t>71,59%</t>
+  </si>
+  <si>
+    <t>76,24%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -251,55 +251,55 @@
     <t>20,95%</t>
   </si>
   <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
   </si>
   <si>
     <t>31,54%</t>
   </si>
   <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>54,35%</t>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>54,32%</t>
   </si>
   <si>
     <t>26,73%</t>
   </si>
   <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>43,43%</t>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>42,92%</t>
   </si>
   <si>
     <t>79,05%</t>
   </si>
   <si>
-    <t>75,23%</t>
-  </si>
-  <si>
-    <t>82,18%</t>
+    <t>75,82%</t>
+  </si>
+  <si>
+    <t>82,34%</t>
   </si>
   <si>
     <t>68,46%</t>
   </si>
   <si>
-    <t>45,65%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
+    <t>45,68%</t>
+  </si>
+  <si>
+    <t>79,49%</t>
   </si>
   <si>
     <t>73,27%</t>
   </si>
   <si>
-    <t>56,57%</t>
-  </si>
-  <si>
-    <t>79,36%</t>
+    <t>57,08%</t>
+  </si>
+  <si>
+    <t>79,38%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -308,109 +308,109 @@
     <t>27,28%</t>
   </si>
   <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
   </si>
   <si>
     <t>29,88%</t>
   </si>
   <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
   </si>
   <si>
     <t>28,7%</t>
   </si>
   <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
   </si>
   <si>
     <t>72,72%</t>
   </si>
   <si>
-    <t>69,57%</t>
-  </si>
-  <si>
-    <t>76,13%</t>
+    <t>69,44%</t>
+  </si>
+  <si>
+    <t>75,75%</t>
   </si>
   <si>
     <t>70,12%</t>
   </si>
   <si>
-    <t>66,66%</t>
-  </si>
-  <si>
-    <t>72,98%</t>
+    <t>66,5%</t>
+  </si>
+  <si>
+    <t>72,81%</t>
   </si>
   <si>
     <t>71,3%</t>
   </si>
   <si>
-    <t>68,78%</t>
-  </si>
-  <si>
-    <t>73,48%</t>
+    <t>68,97%</t>
+  </si>
+  <si>
+    <t>73,34%</t>
   </si>
   <si>
     <t>24,12%</t>
   </si>
   <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
   </si>
   <si>
     <t>27,06%</t>
   </si>
   <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>36,5%</t>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
   </si>
   <si>
     <t>25,68%</t>
   </si>
   <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
   </si>
   <si>
     <t>75,88%</t>
   </si>
   <si>
-    <t>74,12%</t>
-  </si>
-  <si>
-    <t>77,8%</t>
+    <t>74,02%</t>
+  </si>
+  <si>
+    <t>77,58%</t>
   </si>
   <si>
     <t>72,94%</t>
   </si>
   <si>
-    <t>63,5%</t>
-  </si>
-  <si>
-    <t>75,68%</t>
+    <t>65,9%</t>
+  </si>
+  <si>
+    <t>75,58%</t>
   </si>
   <si>
     <t>74,32%</t>
   </si>
   <si>
-    <t>70,04%</t>
-  </si>
-  <si>
-    <t>75,98%</t>
+    <t>69,95%</t>
+  </si>
+  <si>
+    <t>75,9%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -825,7 +825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{678306FF-1226-470F-A1CC-0555C45C4555}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C0C53F9-D1B8-48DB-B513-BFE29E3C1ED7}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1647,7 +1647,7 @@
         <v>1870</v>
       </c>
       <c r="N17" s="7">
-        <v>1502995</v>
+        <v>1502996</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>104</v>
@@ -1698,7 +1698,7 @@
         <v>2557</v>
       </c>
       <c r="N18" s="7">
-        <v>2107984</v>
+        <v>2107985</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
